--- a/result/Results_v2.xlsx
+++ b/result/Results_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
     <t>commits_msg+code</t>
   </si>
   <si>
-    <t>our model </t>
+    <t>our model</t>
   </si>
   <si>
     <t>/home/jameshoang/PycharmCode/LinuxKernelPatch/runs/fold_0_1518703738/checkpoints/model-972</t>
@@ -492,10 +492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -695,6 +695,30 @@
         <v>0.727322033898</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -713,7 +737,7 @@
   </sheetPr>
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
